--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051544.259417283</v>
+        <v>2049046.008096073</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>269.7447738069002</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328579</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1455,7 +1455,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>190.9514458416392</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1664,16 +1664,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374611</v>
+        <v>236.8621683961344</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247809</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773449</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848719</v>
+        <v>270.8701076848718</v>
       </c>
       <c r="D17" t="n">
-        <v>260.2802575345473</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5275859861261</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555758</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673178</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011848</v>
+        <v>154.257874313617</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770204012</v>
+        <v>14.78497770204002</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534845</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727663</v>
+        <v>156.5923878727662</v>
       </c>
       <c r="V17" t="n">
-        <v>233.3494743839992</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W17" t="n">
-        <v>208.8910786437092</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923334</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699179</v>
+        <v>291.8351545699178</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580161</v>
+        <v>85.42919609580147</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249215</v>
+        <v>72.84403701249201</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207667</v>
+        <v>54.21268893207653</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043349</v>
+        <v>52.03117856043335</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679556</v>
+        <v>51.01826393679542</v>
       </c>
       <c r="G19" t="n">
-        <v>71.62302417289254</v>
+        <v>71.6230241728924</v>
       </c>
       <c r="H19" t="n">
-        <v>50.3522308281851</v>
+        <v>50.35223082818496</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9496363237024</v>
+        <v>1.949636323702286</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530621</v>
+        <v>95.36624124530607</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900335</v>
+        <v>125.1461651900334</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8090541194772</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376923</v>
+        <v>157.7348592376922</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504553</v>
+        <v>192.1202142504552</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029015</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.1818692659591</v>
+        <v>124.181869265959</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773449</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848719</v>
+        <v>270.8701076848718</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2802575345473</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E20" t="n">
-        <v>287.5275859861261</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555758</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G20" t="n">
-        <v>285.3568132817892</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011848</v>
+        <v>200.2049803011846</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>14.78497770204002</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534845</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727663</v>
+        <v>156.5923878727662</v>
       </c>
       <c r="V20" t="n">
-        <v>233.3494743839992</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312773</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923334</v>
+        <v>229.3812106047654</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8351545699179</v>
+        <v>291.8351545699178</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580161</v>
+        <v>85.42919609580147</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249215</v>
+        <v>72.84403701249201</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207667</v>
+        <v>54.21268893207653</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043349</v>
+        <v>52.03117856043335</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679556</v>
+        <v>51.01826393679542</v>
       </c>
       <c r="G22" t="n">
-        <v>71.62302417289254</v>
+        <v>71.6230241728924</v>
       </c>
       <c r="H22" t="n">
-        <v>50.3522308281851</v>
+        <v>50.35223082818496</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9496363237024</v>
+        <v>1.949636323702286</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530621</v>
+        <v>95.36624124530607</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900335</v>
+        <v>125.1461651900334</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194772</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7348592376923</v>
+        <v>157.7348592376922</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1202142504553</v>
+        <v>192.1202142504552</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029015</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1818692659591</v>
+        <v>124.181869265959</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773449</v>
+        <v>288.3310575773447</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848719</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D23" t="n">
-        <v>260.2802575345473</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E23" t="n">
-        <v>287.5275859861261</v>
+        <v>287.5275859861259</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555758</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G23" t="n">
-        <v>270.5718355797478</v>
+        <v>270.5718355797514</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011848</v>
+        <v>200.2049803011845</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770204015</v>
+        <v>14.78497770203994</v>
       </c>
       <c r="T23" t="n">
-        <v>109.5151860534845</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U23" t="n">
-        <v>156.5923878727663</v>
+        <v>156.5923878727661</v>
       </c>
       <c r="V23" t="n">
-        <v>233.3494743839992</v>
+        <v>233.349474383999</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312773</v>
+        <v>254.8381846312771</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923334</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699179</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580161</v>
+        <v>85.42919609580139</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249215</v>
+        <v>72.84403701249192</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207667</v>
+        <v>54.21268893207645</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043349</v>
+        <v>52.03117856043326</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679556</v>
+        <v>51.01826393679534</v>
       </c>
       <c r="G25" t="n">
-        <v>71.62302417289254</v>
+        <v>71.62302417289231</v>
       </c>
       <c r="H25" t="n">
-        <v>50.3522308281851</v>
+        <v>50.35223082818487</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702414</v>
+        <v>1.949636323702201</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530621</v>
+        <v>95.36624124530599</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900335</v>
+        <v>125.1461651900333</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194772</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7348592376923</v>
+        <v>157.7348592376921</v>
       </c>
       <c r="W25" t="n">
-        <v>192.1202142504553</v>
+        <v>192.1202142504551</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029015</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659591</v>
+        <v>124.1818692659589</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C26" t="n">
-        <v>317.8452443034644</v>
+        <v>317.8452443034642</v>
       </c>
       <c r="D26" t="n">
-        <v>142.5300941925705</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047187</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741683</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>363.4940781859103</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197773</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.7601143206327</v>
+        <v>61.76011432063251</v>
       </c>
       <c r="T26" t="n">
-        <v>156.490322672077</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498699</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109259</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885104</v>
+        <v>216.8941120651425</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143941</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310847</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D28" t="n">
-        <v>101.1878255506692</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902602</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538809</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G28" t="n">
-        <v>118.5981607914851</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677763</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229496</v>
+        <v>48.92477294229477</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250419</v>
+        <v>41.50450520250401</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T28" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U28" t="n">
-        <v>238.7841907380697</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X28" t="n">
-        <v>178.282007921494</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959374</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034644</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531398</v>
+        <v>307.2553941531396</v>
       </c>
       <c r="E29" t="n">
-        <v>237.5322191507988</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859103</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.7601143206327</v>
+        <v>61.76011432063252</v>
       </c>
       <c r="T29" t="n">
-        <v>156.490322672077</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913588</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498698</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109259</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885104</v>
+        <v>292.0174483562906</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.4043327143941</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310847</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1878255506692</v>
+        <v>101.187825550669</v>
       </c>
       <c r="E31" t="n">
-        <v>99.006315179026</v>
+        <v>99.00631517902585</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538808</v>
+        <v>97.99340055538792</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5981607914851</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677761</v>
+        <v>97.32736744677746</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229494</v>
+        <v>48.92477294229479</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250416</v>
+        <v>41.50450520250402</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T31" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380697</v>
+        <v>238.7841907380695</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
-        <v>178.282007921494</v>
+        <v>178.2820079214938</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="32">
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247745</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592154</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.0675382420299</v>
@@ -3348,7 +3348,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646375</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092317</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621573</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775078</v>
@@ -3490,7 +3490,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600708</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092317</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621573</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600708</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092317</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621573</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441557</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600708</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383225</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010731</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846412</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.7363277948262</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092317</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621573</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.980773859711</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.467889867373</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="D11" t="n">
-        <v>952.6518242086959</v>
+        <v>1329.701660921584</v>
       </c>
       <c r="E11" t="n">
-        <v>680.1823557168773</v>
+        <v>991.363041271413</v>
       </c>
       <c r="F11" t="n">
-        <v>316.646083875343</v>
+        <v>627.8267694298787</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>260.2039522229489</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5057,34 +5057,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638546</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2898.155827638546</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.836805316505</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.820680003498</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1924.13098097576</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
         <v>458.9189605332749</v>
@@ -5115,55 +5115,55 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464214</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1108.487271139325</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>797.671205480648</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>797.671205480648</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391137</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5291,37 +5291,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638546</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243049</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921008</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608001</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580263</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.140134131525</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.632702332808</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843938</v>
@@ -5455,31 +5455,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542915</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164256</v>
+        <v>1411.015066994995</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119259</v>
+        <v>1148.105715949998</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827678</v>
+        <v>857.6738109135067</v>
       </c>
       <c r="F17" t="n">
-        <v>588.4554718549135</v>
+        <v>542.0442536856526</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616631</v>
+        <v>222.3281510924025</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.671500698021</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643996</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479586</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V17" t="n">
-        <v>2806.169431697768</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W17" t="n">
-        <v>2595.168342158668</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X17" t="n">
-        <v>2317.058931459342</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045283</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095349</v>
+        <v>424.1192475095339</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433812</v>
+        <v>350.5394121433803</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927987</v>
+        <v>295.779120292798</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721588</v>
+        <v>243.2223742721582</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360017</v>
+        <v>191.6887743360012</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724739</v>
+        <v>119.3422852724736</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208486</v>
+        <v>68.48144605208472</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148972</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>363.563236727842</v>
+        <v>227.94634245368</v>
       </c>
       <c r="L19" t="n">
-        <v>612.7318368954736</v>
+        <v>477.1149426213117</v>
       </c>
       <c r="M19" t="n">
-        <v>873.6230744399459</v>
+        <v>738.0061801657839</v>
       </c>
       <c r="N19" t="n">
-        <v>1044.931911469793</v>
+        <v>1002.773773440906</v>
       </c>
       <c r="O19" t="n">
-        <v>1276.309016933258</v>
+        <v>1234.15087890437</v>
       </c>
       <c r="P19" t="n">
-        <v>1468.718775931291</v>
+        <v>1426.560637902403</v>
       </c>
       <c r="Q19" t="n">
-        <v>1532.94016150622</v>
+        <v>1532.940161506218</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608148</v>
+        <v>1538.356086608146</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996727</v>
+        <v>1442.026549996726</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128007</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815404</v>
+        <v>1121.869762815402</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712699</v>
+        <v>962.5416221712683</v>
       </c>
       <c r="W19" t="n">
-        <v>768.4807996960625</v>
+        <v>768.480799696061</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597983</v>
+        <v>635.847596359797</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780214</v>
+        <v>510.4113647780202</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1699.555557284805</v>
+        <v>1731.032454542913</v>
       </c>
       <c r="C20" t="n">
-        <v>1425.949387906147</v>
+        <v>1457.426285164255</v>
       </c>
       <c r="D20" t="n">
-        <v>1163.040036861149</v>
+        <v>1194.516934119258</v>
       </c>
       <c r="E20" t="n">
-        <v>872.6081318246586</v>
+        <v>904.0850290827672</v>
       </c>
       <c r="F20" t="n">
-        <v>556.9785745968043</v>
+        <v>588.455471854913</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616631</v>
+        <v>268.7393692616629</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T20" t="n">
-        <v>3214.984421555147</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U20" t="n">
-        <v>3056.810292390737</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V20" t="n">
-        <v>2821.10375260892</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W20" t="n">
-        <v>2563.691444900559</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X20" t="n">
-        <v>2285.582034201232</v>
+        <v>2317.05893145934</v>
       </c>
       <c r="Y20" t="n">
-        <v>1990.799049787174</v>
+        <v>2022.275947045282</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095349</v>
+        <v>424.1192475095339</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433812</v>
+        <v>350.5394121433803</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927987</v>
+        <v>295.779120292798</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721588</v>
+        <v>243.2223742721582</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360017</v>
+        <v>191.6887743360012</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724739</v>
+        <v>119.3422852724736</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208486</v>
+        <v>68.48144605208472</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148972</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>363.563236727842</v>
+        <v>270.1044804825676</v>
       </c>
       <c r="L22" t="n">
-        <v>612.7318368954736</v>
+        <v>519.2730806501993</v>
       </c>
       <c r="M22" t="n">
-        <v>873.6230744399459</v>
+        <v>780.1643181946715</v>
       </c>
       <c r="N22" t="n">
-        <v>1044.931911469793</v>
+        <v>1002.773773440906</v>
       </c>
       <c r="O22" t="n">
-        <v>1276.309016933258</v>
+        <v>1234.15087890437</v>
       </c>
       <c r="P22" t="n">
-        <v>1426.560637902405</v>
+        <v>1426.560637902403</v>
       </c>
       <c r="Q22" t="n">
-        <v>1532.94016150622</v>
+        <v>1532.940161506218</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608148</v>
+        <v>1538.356086608146</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996727</v>
+        <v>1442.026549996726</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128007</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815404</v>
+        <v>1121.869762815402</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712699</v>
+        <v>962.5416221712683</v>
       </c>
       <c r="W22" t="n">
-        <v>768.4807996960625</v>
+        <v>768.480799696061</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597983</v>
+        <v>635.847596359797</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780214</v>
+        <v>510.4113647780202</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1684.621236373652</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C23" t="n">
-        <v>1411.015066994994</v>
+        <v>1411.015066994995</v>
       </c>
       <c r="D23" t="n">
-        <v>1148.105715949996</v>
+        <v>1148.105715949998</v>
       </c>
       <c r="E23" t="n">
-        <v>857.6738109135056</v>
+        <v>857.6738109135076</v>
       </c>
       <c r="F23" t="n">
-        <v>542.0442536856513</v>
+        <v>542.0442536856535</v>
       </c>
       <c r="G23" t="n">
-        <v>268.739369261663</v>
+        <v>268.7393692616628</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218342</v>
@@ -5987,13 +5987,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
@@ -6020,19 +6020,19 @@
         <v>3200.050100643994</v>
       </c>
       <c r="U23" t="n">
-        <v>3041.875971479584</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V23" t="n">
-        <v>2806.169431697766</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W23" t="n">
-        <v>2548.757123989405</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X23" t="n">
-        <v>2270.647713290079</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.86472887602</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6054,22 +6054,22 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
         <v>765.1517452158134</v>
@@ -6081,19 +6081,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095349</v>
+        <v>424.1192475095334</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433812</v>
+        <v>350.5394121433799</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927987</v>
+        <v>295.7791202927976</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721588</v>
+        <v>243.2223742721579</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360017</v>
+        <v>191.688774336001</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724738</v>
+        <v>119.3422852724734</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208485</v>
+        <v>68.48144605208464</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148972</v>
+        <v>129.635488186008</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278419</v>
+        <v>321.4050986989528</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954734</v>
+        <v>477.11494262131</v>
       </c>
       <c r="M25" t="n">
-        <v>873.6230744399455</v>
+        <v>738.0061801657823</v>
       </c>
       <c r="N25" t="n">
-        <v>1096.232529686183</v>
+        <v>1002.773773440904</v>
       </c>
       <c r="O25" t="n">
-        <v>1327.609635149647</v>
+        <v>1234.150878904368</v>
       </c>
       <c r="P25" t="n">
-        <v>1426.560637902405</v>
+        <v>1426.560637902402</v>
       </c>
       <c r="Q25" t="n">
-        <v>1532.94016150622</v>
+        <v>1532.940161506217</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608148</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996727</v>
+        <v>1442.026549996724</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128007</v>
+        <v>1315.616282128004</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.869762815404</v>
+        <v>1121.869762815401</v>
       </c>
       <c r="V25" t="n">
-        <v>962.5416221712699</v>
+        <v>962.5416221712674</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960625</v>
+        <v>768.4807996960602</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597983</v>
+        <v>635.8475963597963</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780214</v>
+        <v>510.4113647780196</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1849.341060351991</v>
+        <v>1428.171828469237</v>
       </c>
       <c r="C26" t="n">
-        <v>1528.285258025259</v>
+        <v>1107.116026142505</v>
       </c>
       <c r="D26" t="n">
-        <v>1384.315465911552</v>
+        <v>796.7570421494341</v>
       </c>
       <c r="E26" t="n">
-        <v>1046.433927926988</v>
+        <v>796.7570421494341</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510599</v>
+        <v>433.6778519735067</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097363</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218286</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6242,7 +6242,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
@@ -6251,25 +6251,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3263.221867749945</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T26" t="n">
         <v>3105.150834747848</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.150834747848</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V26" t="n">
-        <v>2821.994662017957</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W26" t="n">
-        <v>2517.132721361523</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X26" t="n">
-        <v>2191.573677714123</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y26" t="n">
-        <v>1849.341060351991</v>
+        <v>1766.864953919678</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332737</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6321,22 +6321,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199864</v>
@@ -6345,7 +6345,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
         <v>1109.759191501176</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460478</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318208</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331651</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644519</v>
+        <v>433.0209060644512</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802215</v>
+        <v>334.037673180221</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686204</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H28" t="n">
-        <v>115.9310790001581</v>
+        <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719867</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
-        <v>409.5286738137307</v>
+        <v>409.5286738137311</v>
       </c>
       <c r="L28" t="n">
-        <v>773.0418432550946</v>
+        <v>773.0418432550952</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274116</v>
+        <v>1153.255067274112</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972849</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.89978488613</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312657</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458039</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829247</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269753</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452959</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192283</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600076</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.977129176795</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892458</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626074</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1305.024172789065</v>
+        <v>1677.848714246789</v>
       </c>
       <c r="C29" t="n">
-        <v>983.968370462334</v>
+        <v>1356.792911920057</v>
       </c>
       <c r="D29" t="n">
-        <v>673.6093864692634</v>
+        <v>1046.433927926987</v>
       </c>
       <c r="E29" t="n">
-        <v>433.6778519735069</v>
+        <v>1046.433927926987</v>
       </c>
       <c r="F29" t="n">
-        <v>433.6778519735069</v>
+        <v>683.3547377510592</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>316.1890022097361</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6461,16 +6461,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6488,7 +6488,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3263.221867749945</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T29" t="n">
         <v>3105.150834747848</v>
@@ -6497,16 +6497,16 @@
         <v>2899.527072635364</v>
       </c>
       <c r="V29" t="n">
-        <v>2616.370899905473</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W29" t="n">
         <v>2311.508959249039</v>
       </c>
       <c r="X29" t="n">
-        <v>1985.949915601639</v>
+        <v>2311.508959249039</v>
       </c>
       <c r="Y29" t="n">
-        <v>1643.717298239507</v>
+        <v>2016.54183969723</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460476</v>
+        <v>756.2666781460466</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318207</v>
+        <v>635.2372098318198</v>
       </c>
       <c r="D31" t="n">
-        <v>533.027285033165</v>
+        <v>533.0272850331642</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644518</v>
+        <v>433.0209060644512</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802214</v>
+        <v>334.037673180221</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686204</v>
+        <v>214.24155116862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9310790001581</v>
+        <v>115.931079000158</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719867</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5286738137307</v>
+        <v>409.5286738137311</v>
       </c>
       <c r="L31" t="n">
-        <v>773.0418432550946</v>
+        <v>773.041843255095</v>
       </c>
       <c r="M31" t="n">
-        <v>1164.152259847511</v>
+        <v>1164.152259847512</v>
       </c>
       <c r="N31" t="n">
-        <v>1552.514007546244</v>
+        <v>1541.616814972845</v>
       </c>
       <c r="O31" t="n">
-        <v>1898.796977459525</v>
+        <v>1887.899784886126</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312656</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458039</v>
+        <v>2292.024323458036</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829247</v>
+        <v>2250.100580829244</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269753</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452959</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.265358192282</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600075</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176795</v>
+        <v>1242.977129176793</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892458</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626073</v>
+        <v>890.0084283626062</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C32" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D32" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E32" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6713,10 +6713,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6731,19 +6731,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U32" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W32" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X32" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y32" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064548</v>
@@ -6801,28 +6801,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6862,13 +6862,13 @@
         <v>371.3804471090253</v>
       </c>
       <c r="L34" t="n">
-        <v>602.6554402005002</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M34" t="n">
-        <v>866.7957945255218</v>
+        <v>791.2306453564044</v>
       </c>
       <c r="N34" t="n">
-        <v>1134.812504581193</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O34" t="n">
         <v>1272.730853799383</v>
@@ -6929,16 +6929,16 @@
         <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6950,7 +6950,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
@@ -6959,13 +6959,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -6996,22 +6996,22 @@
         <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170918</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630284</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226768</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155311</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K37" t="n">
-        <v>350.237723252318</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L37" t="n">
-        <v>602.6554402004992</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M37" t="n">
-        <v>866.795794525521</v>
+        <v>770.0879214996978</v>
       </c>
       <c r="N37" t="n">
         <v>1038.104631555369</v>
       </c>
       <c r="O37" t="n">
-        <v>1272.730853799382</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P37" t="n">
         <v>1371.681856552141</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
         <v>1273.865908363022</v>
@@ -7129,16 +7129,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734881</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7157,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
         <v>458.9189605332749</v>
@@ -7245,10 +7245,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7275,28 +7275,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630284</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226766</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>176.3617198155311</v>
+        <v>155.2189959588259</v>
       </c>
       <c r="K40" t="n">
-        <v>350.237723252318</v>
+        <v>253.5298502264962</v>
       </c>
       <c r="L40" t="n">
-        <v>602.6554402004992</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M40" t="n">
-        <v>866.795794525521</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.104631555369</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799382</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552141</v>
+        <v>1468.389729577966</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734881</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7427,19 +7427,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515854</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630284</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226768</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155311</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090255</v>
+        <v>253.5298502264962</v>
       </c>
       <c r="L43" t="n">
-        <v>611.3204820829765</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M43" t="n">
-        <v>875.4608364079982</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N43" t="n">
-        <v>1143.47754646367</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O43" t="n">
-        <v>1378.103768707683</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734881</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7625,10 @@
         <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
         <v>894.1397680464975</v>
@@ -7637,19 +7637,19 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7661,7 +7661,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7670,13 +7670,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,13 +7716,13 @@
         <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170918</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630284</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919197</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889411</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>525.7713142112983</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M46" t="n">
-        <v>789.9116685363201</v>
+        <v>791.230645356404</v>
       </c>
       <c r="N46" t="n">
-        <v>961.2205055661676</v>
+        <v>962.5394823862515</v>
       </c>
       <c r="O46" t="n">
-        <v>1195.846727810181</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552141</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936505</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304657</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673485</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431747</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734881</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>167.5023956837942</v>
+        <v>167.5023956837894</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10279,13 +10279,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>160.8104516188059</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>123.9992980883892</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737082</v>
+        <v>15.25815758737081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>65.21045964676904</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587003</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>127.3463093107759</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413266</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>45.9471059875677</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>45.94710598756811</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>31.1621282855285</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770204012</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>45.9471059875678</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.94710598756998</v>
+        <v>45.94710598756615</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959375</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>164.7252999605694</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.1801169197771</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913588</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.9161791233677</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>96.97050345391978</v>
+        <v>334.5027226047184</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4483982741683</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197773</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24743,10 +24743,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>46.79284283221958</v>
       </c>
     </row>
     <row r="30">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760666.3337679048</v>
+        <v>760666.3337679047</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760666.3337679048</v>
+        <v>760666.3337679047</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796949.7707219814</v>
+        <v>796949.7707219815</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796949.7707219813</v>
+        <v>796949.7707219817</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760992.8959273386</v>
+        <v>760992.8959273389</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760992.8959273387</v>
+        <v>760992.8959273389</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.162505705</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="D2" t="n">
-        <v>634941.9126414481</v>
+        <v>634941.9126414483</v>
       </c>
       <c r="E2" t="n">
-        <v>592511.5326646284</v>
+        <v>592511.5326646281</v>
       </c>
       <c r="F2" t="n">
-        <v>592511.5326646285</v>
+        <v>592511.5326646282</v>
       </c>
       <c r="G2" t="n">
-        <v>633472.8946764453</v>
+        <v>633472.8946764449</v>
       </c>
       <c r="H2" t="n">
-        <v>633472.8946764452</v>
+        <v>633472.8946764449</v>
       </c>
       <c r="I2" t="n">
-        <v>633472.8946764451</v>
+        <v>633472.8946764462</v>
       </c>
       <c r="J2" t="n">
-        <v>592902.3481844339</v>
+        <v>592902.3481844341</v>
       </c>
       <c r="K2" t="n">
         <v>592902.3481844338</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448204</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448206</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971248037</v>
+        <v>9496.994971251315</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265979</v>
+        <v>1152439.021265975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403453</v>
+        <v>37942.11797403459</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248401</v>
+        <v>78147.77618248395</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920731</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.821258638</v>
+        <v>463750.8212586367</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369696</v>
+        <v>63095.10913369706</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.10913369695</v>
+        <v>63095.10913369706</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662267</v>
+        <v>91701.70120662282</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662269</v>
+        <v>91701.70120662282</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662269</v>
+        <v>91701.70120662291</v>
       </c>
       <c r="J4" t="n">
-        <v>63366.32784492833</v>
+        <v>63366.32784492837</v>
       </c>
       <c r="K4" t="n">
-        <v>63366.32784492834</v>
+        <v>63366.32784492839</v>
       </c>
       <c r="L4" t="n">
         <v>93774.13782657706</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657709</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657708</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657712</v>
+        <v>93774.13782657703</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328347</v>
+        <v>33869.34580328355</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
+        <v>82242.68821673065</v>
+      </c>
+      <c r="H5" t="n">
+        <v>82242.68821673065</v>
+      </c>
+      <c r="I5" t="n">
         <v>82242.68821673066</v>
       </c>
-      <c r="H5" t="n">
-        <v>82242.68821673066</v>
-      </c>
-      <c r="I5" t="n">
-        <v>82242.68821673063</v>
-      </c>
       <c r="J5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="K5" t="n">
         <v>78293.53545634219</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133695.6025739738</v>
+        <v>133691.1889961052</v>
       </c>
       <c r="C6" t="n">
-        <v>133695.6025739736</v>
+        <v>133691.1889961052</v>
       </c>
       <c r="D6" t="n">
-        <v>127824.7506082785</v>
+        <v>127820.3459018143</v>
       </c>
       <c r="E6" t="n">
-        <v>-701278.0910568291</v>
+        <v>-701419.3679567617</v>
       </c>
       <c r="F6" t="n">
-        <v>451160.9302091497</v>
+        <v>451019.6533092133</v>
       </c>
       <c r="G6" t="n">
-        <v>421586.3872790575</v>
+        <v>421577.2438049653</v>
       </c>
       <c r="H6" t="n">
-        <v>459528.5052530919</v>
+        <v>459519.361779</v>
       </c>
       <c r="I6" t="n">
-        <v>459528.5052530922</v>
+        <v>459519.3617790011</v>
       </c>
       <c r="J6" t="n">
-        <v>451242.4848831634</v>
+        <v>451102.4686784526</v>
       </c>
       <c r="K6" t="n">
-        <v>451242.4848831632</v>
+        <v>451102.4686784523</v>
       </c>
       <c r="L6" t="n">
-        <v>381866.8603295093</v>
+        <v>381866.8603295095</v>
       </c>
       <c r="M6" t="n">
-        <v>252826.0682199204</v>
+        <v>252826.0682199206</v>
       </c>
       <c r="N6" t="n">
-        <v>460014.6365119933</v>
+        <v>460014.6365119935</v>
       </c>
       <c r="O6" t="n">
-        <v>460014.6365119925</v>
+        <v>460014.6365119934</v>
       </c>
       <c r="P6" t="n">
-        <v>460014.6365119932</v>
+        <v>460014.6365119937</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L2" t="n">
         <v>97.68472022810502</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0892570313517</v>
+        <v>11.08925703135553</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26820,16 +26820,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754316</v>
+        <v>47.42764746754324</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0892570313517</v>
+        <v>11.08925703135553</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561947</v>
+        <v>1078.687443561942</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754316</v>
+        <v>47.42764746754324</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305518</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052755</v>
+        <v>208.7572219052749</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826071</v>
+        <v>177.2622388826058</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586416</v>
+        <v>214.4191170586397</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193338</v>
+        <v>228.7313680193314</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862422</v>
+        <v>222.5183879862395</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556358003</v>
+        <v>221.4585556357976</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176017</v>
+        <v>222.5869951175991</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178639</v>
+        <v>224.8223464178616</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592001002</v>
+        <v>217.4915592000985</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267125</v>
+        <v>212.7851939267115</v>
       </c>
       <c r="S8" t="n">
-        <v>208.004204482318</v>
+        <v>208.0042044823176</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.005080614015</v>
+        <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588574</v>
+        <v>98.70114728588545</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297578</v>
+        <v>124.584101329757</v>
       </c>
       <c r="K9" t="n">
-        <v>133.989805237347</v>
+        <v>133.9898052373456</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993358</v>
+        <v>133.375382899334</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399316</v>
+        <v>136.0903888399295</v>
       </c>
       <c r="N9" t="n">
-        <v>125.138109699351</v>
+        <v>125.1381096993489</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352017</v>
+        <v>136.9211602351997</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121511</v>
+        <v>129.4196520121495</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214889</v>
+        <v>136.9370407214878</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721167</v>
+        <v>144.1985650721161</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007456</v>
+        <v>171.2401239007455</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8491099721811</v>
+        <v>154.8491099721808</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634482</v>
+        <v>125.5816320634477</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269178</v>
+        <v>126.689967926917</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502428</v>
+        <v>131.9116646502418</v>
       </c>
       <c r="M10" t="n">
-        <v>135.79116002971</v>
+        <v>135.7911600297089</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978768</v>
+        <v>124.6254548978757</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465402</v>
+        <v>135.6300504465393</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697197</v>
+        <v>135.3094552697189</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177117</v>
+        <v>149.8305238177112</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021356</v>
+        <v>176.3942526021353</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613568</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40278408613568</v>
+        <v>51.81880627917863</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.81880627918063</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="R19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613568</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>51.81880627917866</v>
       </c>
       <c r="O22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="P22" t="n">
-        <v>51.81880627918068</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="R22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613582</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613568</v>
+        <v>51.81880627917688</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613568</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="N25" t="n">
-        <v>51.81880627918147</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="R25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613568</v>
+        <v>94.40278408613591</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754315</v>
+        <v>47.42764746754333</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29548,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="30">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I30" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754317</v>
+        <v>47.42764746754332</v>
       </c>
     </row>
     <row r="32">
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29934,16 +29934,16 @@
         <v>97.68472022810502</v>
       </c>
       <c r="L34" t="n">
-        <v>76.32843350415919</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>76.32843350415899</v>
+      </c>
+      <c r="O34" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="N34" t="n">
-        <v>97.68472022810502</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>76.32843350415817</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810505</v>
+        <v>76.32843350415911</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30259,7 +30259,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810505</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810505</v>
+        <v>77.66073332242732</v>
       </c>
       <c r="K40" t="n">
-        <v>76.32843350415817</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810505</v>
+        <v>76.3284335041605</v>
       </c>
       <c r="L43" t="n">
-        <v>85.08100106221596</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810505</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810505</v>
+        <v>76.32843350416042</v>
       </c>
       <c r="P46" t="n">
-        <v>77.66073332242502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810505</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776422792</v>
+        <v>0.0445799277642433</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852153993</v>
+        <v>0.4565541852155569</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130398</v>
+        <v>1.718667665130992</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079143</v>
+        <v>3.783665644080448</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986338912</v>
+        <v>5.670733986340869</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950653403</v>
+        <v>7.035046950655831</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241030492</v>
+        <v>7.827845241033192</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960790605</v>
+        <v>7.954507960793349</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304085063</v>
+        <v>7.511216304087655</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337405685</v>
+        <v>6.410649337407897</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674349271</v>
+        <v>4.814130674350932</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887419685</v>
+        <v>2.800343887420651</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927345</v>
+        <v>1.015865103927695</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879078</v>
+        <v>0.1951486337879751</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138233</v>
+        <v>0.003566394221139464</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064329</v>
+        <v>0.02385236418065152</v>
       </c>
       <c r="H9" t="n">
-        <v>0.230363622481476</v>
+        <v>0.2303636224815555</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141142536</v>
+        <v>0.821232714114537</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336908935</v>
+        <v>2.253525336909712</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012035</v>
+        <v>3.851633737013364</v>
       </c>
       <c r="L9" t="n">
-        <v>5.17899688053836</v>
+        <v>5.178996880540147</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082086678</v>
+        <v>6.043645082088763</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383982308</v>
+        <v>6.203602383984449</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209242791</v>
+        <v>5.67508420924475</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179156</v>
+        <v>4.554755402180727</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364532642</v>
+        <v>3.044733364533692</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847309</v>
+        <v>1.48093889184782</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030922116</v>
+        <v>0.4430472030923645</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0961417661491718</v>
+        <v>0.09614176614920499</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568638</v>
+        <v>0.001569234485569179</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087620799</v>
+        <v>0.01999702087621489</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946993766</v>
+        <v>0.177791694699438</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550772368</v>
+        <v>0.6013649550774443</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375947905</v>
+        <v>1.413789375948392</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617619</v>
+        <v>2.32329024361842</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995504</v>
+        <v>2.97301163099653</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895039</v>
+        <v>3.13462391789612</v>
       </c>
       <c r="N10" t="n">
-        <v>3.060089567356448</v>
+        <v>3.060089567357504</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005302563</v>
+        <v>2.826488005303538</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779427918</v>
+        <v>2.418548779428752</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734107</v>
+        <v>1.674477811734685</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750338607</v>
+        <v>0.8991387750341709</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365426427</v>
+        <v>0.3484935365427629</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647107046</v>
+        <v>0.08544181647109995</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00109074659324771</v>
+        <v>0.001090746593248086</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34138,7 +34138,7 @@
         <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574998</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
         <v>781.7148990095022</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764786</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>193.7066772858028</v>
+        <v>151.1226994788456</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147794</v>
+        <v>251.6854547147795</v>
       </c>
       <c r="M19" t="n">
-        <v>263.5265025701739</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>267.442013409214</v>
       </c>
       <c r="O19" t="n">
         <v>233.7142479428931</v>
@@ -36060,10 +36060,10 @@
         <v>194.3532919172051</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.87008643932286</v>
+        <v>107.454064246278</v>
       </c>
       <c r="R19" t="n">
-        <v>5.470631416088366</v>
+        <v>5.47063141608848</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764786</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
         <v>193.7066772858028</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147794</v>
+        <v>251.6854547147795</v>
       </c>
       <c r="M22" t="n">
-        <v>263.5265025701739</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>224.8580356022569</v>
       </c>
       <c r="O22" t="n">
         <v>233.7142479428931</v>
       </c>
       <c r="P22" t="n">
-        <v>151.7693141102501</v>
+        <v>194.3532919172051</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.4540642462779</v>
+        <v>107.454064246278</v>
       </c>
       <c r="R22" t="n">
-        <v>5.470631416088366</v>
+        <v>5.47063141608848</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,31 +36513,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764786</v>
+        <v>63.76098156951974</v>
       </c>
       <c r="K25" t="n">
-        <v>193.7066772858027</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147794</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>263.5265025701739</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N25" t="n">
-        <v>224.8580356022598</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>233.714247942893</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.4540642462779</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R25" t="n">
-        <v>5.470631416088352</v>
+        <v>5.470631416088565</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060935</v>
+        <v>93.00606408060955</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118627</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L28" t="n">
-        <v>367.1850196377412</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M28" t="n">
-        <v>384.0537616353755</v>
+        <v>384.053761635371</v>
       </c>
       <c r="N28" t="n">
-        <v>392.2845936350832</v>
+        <v>392.2845936350834</v>
       </c>
       <c r="O28" t="n">
-        <v>349.7807776901828</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126535</v>
+        <v>282.3847186126538</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.8218860054368</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060936</v>
+        <v>93.00606408060952</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118627</v>
+        <v>253.4753070118628</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377412</v>
+        <v>367.1850196377414</v>
       </c>
       <c r="M31" t="n">
-        <v>395.061026861027</v>
+        <v>395.0610268610271</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350832</v>
+        <v>381.2773284094275</v>
       </c>
       <c r="O31" t="n">
-        <v>349.7807776901829</v>
+        <v>349.7807776901831</v>
       </c>
       <c r="P31" t="n">
-        <v>271.3774533870017</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.8218860054368</v>
+        <v>125.821886005437</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
@@ -37230,16 +37230,16 @@
         <v>196.988613427772</v>
       </c>
       <c r="L34" t="n">
-        <v>233.6111041328028</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7239495511833</v>
+        <v>249.3676628272372</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P34" t="n">
         <v>99.95050783106927</v>
@@ -37458,22 +37458,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266939</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>175.6323267038252</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>245.4521519881972</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O37" t="n">
         <v>236.9961840848623</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057706</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266939</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184479</v>
+        <v>89.60290861277018</v>
       </c>
       <c r="K40" t="n">
-        <v>175.6323267038252</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057706</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302271</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37859,7 +37859,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266939</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038275</v>
       </c>
       <c r="L43" t="n">
-        <v>242.3636716908596</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302271</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
         <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>215.6398973609177</v>
       </c>
       <c r="P46" t="n">
-        <v>177.6112411534943</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057706</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
